--- a/GATEWAY/S1#060000000000XX/INSIEL/SEI/SEI 03.00.02.01/accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/S1#060000000000XX/INSIEL/SEI/SEI 03.00.02.01/accreditamento-checklist_V8.1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CDA2_SEI\Accreditamento_Last\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDF35AA-77C4-4550-BE10-6EBEE665B8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2EB21B-C62C-4C23-8CC2-7E37E6114488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4477,18 +4477,6 @@
     <t>subject_application_version: SEI 03.00.02.01</t>
   </si>
   <si>
-    <t>Wed,22 Mar 2023 09:49:04</t>
-  </si>
-  <si>
-    <t>2023-03-22T09:49:04Z</t>
-  </si>
-  <si>
-    <t>75124dbd56c15875</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.60.4.4.643ee3f85a33f35b0aff232303e937b7d941e1c70bde95409dc5f02ac8f24e3a.7421c9a825^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>I DATI OPZIONALI RICHIESTI NON SONO GESTITI DALL'APPLICATIVO</t>
   </si>
   <si>
@@ -4743,20 +4731,32 @@
   "detail": "Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.1.54.4, Codes: 99]"</t>
   </si>
   <si>
-    <t>Thu,23 Mar 2023 08:04:41</t>
-  </si>
-  <si>
-    <t>2023-03-23T08:04:41Z</t>
-  </si>
-  <si>
-    <t>50fda831f9c05727</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.60.4.4.d9bc850f2692be41d3f75e4be64a8013125058831edf5e5ff200c4de2af39f70.1c6469951e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>Wed,29 Mar 2023 08:10:44</t>
+  </si>
+  <si>
+    <t>2023-03-29T08:10:44Z</t>
+  </si>
+  <si>
+    <t>95d0cacdd1b9e844</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.60.4.4.7ebc2373e1cc5dcb3cef1f53a3b3a8b1b1b743d75b8338bd6e10ce9d9a2ee5dc.f0a41ce67c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Fri,31 Mar 2023 13:52:57</t>
+  </si>
+  <si>
+    <t>2023-03-31T13:52:57Z</t>
+  </si>
+  <si>
+    <t>8d901f41fc770b65</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.60.4.4.9c49b42c5191a2f0ad95f77c6ee74a8e60528be6ca798252ea5544850e065329.254acc3576^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve"> "status": 400,
-  "detail": "Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: UNKN]"</t>
+  "detail": "ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'."</t>
   </si>
 </sst>
 </file>
@@ -6670,10 +6670,10 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B324" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M310" sqref="M310"/>
+      <selection pane="bottomRight" activeCell="A327" sqref="A327:XFD327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -13646,16 +13646,16 @@
         <v>448</v>
       </c>
       <c r="F207" s="23" t="s">
-        <v>834</v>
+        <v>913</v>
       </c>
       <c r="G207" s="33" t="s">
-        <v>835</v>
+        <v>914</v>
       </c>
       <c r="H207" s="24" t="s">
-        <v>836</v>
+        <v>915</v>
       </c>
       <c r="I207" s="24" t="s">
-        <v>837</v>
+        <v>916</v>
       </c>
       <c r="J207" s="34" t="s">
         <v>489</v>
@@ -13699,7 +13699,7 @@
         <v>829</v>
       </c>
       <c r="K208" s="34" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="L208" s="25"/>
       <c r="M208" s="25"/>
@@ -13737,7 +13737,7 @@
         <v>829</v>
       </c>
       <c r="K209" s="34" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="L209" s="25"/>
       <c r="M209" s="25"/>
@@ -13775,7 +13775,7 @@
         <v>829</v>
       </c>
       <c r="K210" s="34" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="L210" s="25"/>
       <c r="M210" s="25"/>
@@ -14051,7 +14051,7 @@
         <v>829</v>
       </c>
       <c r="K218" s="34" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="L218" s="25"/>
       <c r="M218" s="25"/>
@@ -14327,7 +14327,7 @@
         <v>829</v>
       </c>
       <c r="K226" s="34" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="L226" s="25"/>
       <c r="M226" s="25"/>
@@ -14622,7 +14622,7 @@
       <c r="N234" s="25"/>
       <c r="O234" s="25"/>
       <c r="P234" s="34" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="Q234" s="25"/>
       <c r="R234" s="26"/>
@@ -17028,16 +17028,16 @@
         <v>638</v>
       </c>
       <c r="F305" s="23" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="G305" s="33" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="H305" s="24" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="I305" s="33" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="J305" s="25" t="s">
         <v>489</v>
@@ -17050,13 +17050,13 @@
         <v>489</v>
       </c>
       <c r="N305" s="34" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="O305" s="25" t="s">
         <v>489</v>
       </c>
       <c r="P305" s="34" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="Q305" s="25" t="s">
         <v>827</v>
@@ -17084,16 +17084,16 @@
         <v>640</v>
       </c>
       <c r="F306" s="23" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="G306" s="33" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="H306" s="24" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="I306" s="24" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="J306" s="25" t="s">
         <v>489</v>
@@ -17106,13 +17106,13 @@
         <v>489</v>
       </c>
       <c r="N306" s="34" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="O306" s="25" t="s">
         <v>489</v>
       </c>
       <c r="P306" s="25" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="Q306" s="25" t="s">
         <v>827</v>
@@ -17140,16 +17140,16 @@
         <v>642</v>
       </c>
       <c r="F307" s="23" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="G307" s="33" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="H307" s="24" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="I307" s="24" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="J307" s="25" t="s">
         <v>489</v>
@@ -17162,13 +17162,13 @@
         <v>489</v>
       </c>
       <c r="N307" s="34" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="O307" s="25" t="s">
         <v>489</v>
       </c>
       <c r="P307" s="25" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="Q307" s="25" t="s">
         <v>827</v>
@@ -17203,7 +17203,7 @@
         <v>829</v>
       </c>
       <c r="K308" s="34" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="L308" s="25"/>
       <c r="M308" s="25"/>
@@ -17234,16 +17234,16 @@
         <v>646</v>
       </c>
       <c r="F309" s="23" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="G309" s="33" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="H309" s="24" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="I309" s="24" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="J309" s="25" t="s">
         <v>489</v>
@@ -17256,13 +17256,13 @@
         <v>489</v>
       </c>
       <c r="N309" s="34" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="O309" s="25" t="s">
         <v>489</v>
       </c>
       <c r="P309" s="25" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="Q309" s="25" t="s">
         <v>827</v>
@@ -17290,16 +17290,16 @@
         <v>648</v>
       </c>
       <c r="F310" s="23" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="G310" s="33" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="H310" s="24" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="I310" s="24" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="J310" s="25" t="s">
         <v>489</v>
@@ -17312,13 +17312,13 @@
         <v>489</v>
       </c>
       <c r="N310" s="34" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="O310" s="25" t="s">
         <v>489</v>
       </c>
       <c r="P310" s="25" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="Q310" s="25" t="s">
         <v>827</v>
@@ -17346,16 +17346,16 @@
         <v>650</v>
       </c>
       <c r="F311" s="23" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="G311" s="33" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="H311" s="24" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="I311" s="24" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="J311" s="25" t="s">
         <v>489</v>
@@ -17368,13 +17368,13 @@
         <v>489</v>
       </c>
       <c r="N311" s="34" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="O311" s="25" t="s">
         <v>489</v>
       </c>
       <c r="P311" s="25" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="Q311" s="25" t="s">
         <v>827</v>
@@ -17402,16 +17402,16 @@
         <v>652</v>
       </c>
       <c r="F312" s="23" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="G312" s="33" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="H312" s="24" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="I312" s="24" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="J312" s="25" t="s">
         <v>489</v>
@@ -17424,13 +17424,13 @@
         <v>489</v>
       </c>
       <c r="N312" s="34" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="O312" s="25" t="s">
         <v>489</v>
       </c>
       <c r="P312" s="25" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="Q312" s="25" t="s">
         <v>827</v>
@@ -17458,16 +17458,16 @@
         <v>654</v>
       </c>
       <c r="F313" s="23" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="G313" s="33" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="H313" s="24" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="I313" s="24" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="J313" s="25" t="s">
         <v>489</v>
@@ -17480,13 +17480,13 @@
         <v>489</v>
       </c>
       <c r="N313" s="34" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="O313" s="25" t="s">
         <v>489</v>
       </c>
       <c r="P313" s="25" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="Q313" s="25" t="s">
         <v>827</v>
@@ -17514,16 +17514,16 @@
         <v>656</v>
       </c>
       <c r="F314" s="23" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="G314" s="33" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="H314" s="24" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="I314" s="24" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="J314" s="25" t="s">
         <v>489</v>
@@ -17536,13 +17536,13 @@
         <v>489</v>
       </c>
       <c r="N314" s="34" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="O314" s="25" t="s">
         <v>489</v>
       </c>
       <c r="P314" s="25" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="Q314" s="25" t="s">
         <v>827</v>
@@ -17570,16 +17570,16 @@
         <v>658</v>
       </c>
       <c r="F315" s="23" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="G315" s="33" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="H315" s="24" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="I315" s="24" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="J315" s="25" t="s">
         <v>489</v>
@@ -17592,13 +17592,13 @@
         <v>489</v>
       </c>
       <c r="N315" s="34" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="O315" s="25" t="s">
         <v>489</v>
       </c>
       <c r="P315" s="25" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="Q315" s="25" t="s">
         <v>827</v>
@@ -17626,16 +17626,16 @@
         <v>660</v>
       </c>
       <c r="F316" s="23" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="G316" s="33" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="H316" s="24" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="I316" s="24" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="J316" s="25" t="s">
         <v>489</v>
@@ -17648,13 +17648,13 @@
         <v>489</v>
       </c>
       <c r="N316" s="34" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="O316" s="25" t="s">
         <v>489</v>
       </c>
       <c r="P316" s="25" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="Q316" s="25" t="s">
         <v>827</v>
@@ -17689,7 +17689,7 @@
         <v>829</v>
       </c>
       <c r="K317" s="34" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="L317" s="25"/>
       <c r="M317" s="25"/>
@@ -17727,7 +17727,7 @@
         <v>829</v>
       </c>
       <c r="K318" s="34" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="L318" s="25"/>
       <c r="M318" s="25"/>
@@ -17765,7 +17765,7 @@
         <v>829</v>
       </c>
       <c r="K319" s="34" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="L319" s="25"/>
       <c r="M319" s="25"/>
@@ -17803,7 +17803,7 @@
         <v>829</v>
       </c>
       <c r="K320" s="34" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="L320" s="25"/>
       <c r="M320" s="25"/>
@@ -17841,7 +17841,7 @@
         <v>829</v>
       </c>
       <c r="K321" s="34" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="L321" s="25"/>
       <c r="M321" s="25"/>
@@ -17872,16 +17872,16 @@
         <v>672</v>
       </c>
       <c r="F322" s="23" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="G322" s="33" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="H322" s="24" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="I322" s="24" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="J322" s="25" t="s">
         <v>489</v>
@@ -17894,13 +17894,13 @@
         <v>489</v>
       </c>
       <c r="N322" s="34" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="O322" s="25" t="s">
         <v>489</v>
       </c>
       <c r="P322" s="25" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="Q322" s="25" t="s">
         <v>827</v>
@@ -17928,16 +17928,16 @@
         <v>674</v>
       </c>
       <c r="F323" s="23" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="G323" s="33" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="H323" s="24" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="I323" s="24" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="J323" s="25" t="s">
         <v>489</v>
@@ -17950,13 +17950,13 @@
         <v>489</v>
       </c>
       <c r="N323" s="34" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="O323" s="25" t="s">
         <v>489</v>
       </c>
       <c r="P323" s="25" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="Q323" s="25" t="s">
         <v>827</v>
@@ -17991,7 +17991,7 @@
         <v>829</v>
       </c>
       <c r="K324" s="34" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="L324" s="25"/>
       <c r="M324" s="25"/>
@@ -18022,16 +18022,16 @@
         <v>678</v>
       </c>
       <c r="F325" s="23" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="G325" s="33" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="H325" s="24" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="I325" s="24" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="J325" s="25" t="s">
         <v>489</v>
@@ -18044,13 +18044,13 @@
         <v>489</v>
       </c>
       <c r="N325" s="34" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="O325" s="25" t="s">
         <v>489</v>
       </c>
       <c r="P325" s="25" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="Q325" s="25" t="s">
         <v>827</v>
@@ -18078,16 +18078,16 @@
         <v>680</v>
       </c>
       <c r="F326" s="23" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G326" s="33" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="H326" s="24" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="I326" s="24" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="J326" s="25" t="s">
         <v>489</v>
@@ -18100,13 +18100,13 @@
         <v>489</v>
       </c>
       <c r="N326" s="34" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="O326" s="25" t="s">
         <v>489</v>
       </c>
       <c r="P326" s="25" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="Q326" s="25" t="s">
         <v>827</v>
@@ -18142,7 +18142,7 @@
       <c r="H327" s="24" t="s">
         <v>919</v>
       </c>
-      <c r="I327" s="24" t="s">
+      <c r="I327" s="33" t="s">
         <v>920</v>
       </c>
       <c r="J327" s="25" t="s">
@@ -18162,7 +18162,7 @@
         <v>489</v>
       </c>
       <c r="P327" s="25" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="Q327" s="25" t="s">
         <v>827</v>
@@ -18197,7 +18197,7 @@
         <v>829</v>
       </c>
       <c r="K328" s="34" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="L328" s="25"/>
       <c r="M328" s="25"/>
@@ -18235,7 +18235,7 @@
         <v>829</v>
       </c>
       <c r="K329" s="34" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="L329" s="25"/>
       <c r="M329" s="25"/>
@@ -32369,13 +32369,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E9287C2-0C79-4A7E-8A73-F278CD5C8346}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CAE719D-87E1-45A4-B24E-A394263401A1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B63B176F-F07C-43B0-A72A-2A09E61DD001}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0479C4E-D968-45F2-AB25-E1B2062DFCE2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A9CBA82-E28D-43EE-A6BA-09CB05BE1155}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B22D764-37B9-48A6-84D6-95558FBA59D6}"/>
 </file>